--- a/Valuation_Engine_Mapping.xlsx
+++ b/Valuation_Engine_Mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tao_project\valuation_engine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\GitHub\hellotaoworld\valuation_engine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF211E51-691D-467F-96F1-B6743F326200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598A2CC0-481F-4034-B57D-3FFFC3DB7200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="3" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="722" activeTab="2" xr2:uid="{DB505F9D-00EE-40BB-9331-63CC137490AC}"/>
   </bookViews>
   <sheets>
     <sheet name="BS tags" sheetId="16" r:id="rId1"/>
@@ -21,26 +21,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formula!$A$1:$E$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="322">
   <si>
     <t>is.net_revenue</t>
   </si>
@@ -1004,6 +995,9 @@
   </si>
   <si>
     <t>PE Ratio</t>
+  </si>
+  <si>
+    <t>RevenueFromContractWithCustomerIncludingAssessedTax</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1005,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1066,18 +1060,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1087,7 +1081,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1831,8 +1824,8 @@
   </sheetPr>
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2072,6 +2065,9 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>321</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>303</v>
       </c>
@@ -2089,14 +2085,14 @@
   </sheetPr>
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" style="8" customWidth="1"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33" customWidth="1"/>
@@ -2106,7 +2102,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
@@ -2129,7 +2125,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
@@ -2152,7 +2148,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2175,7 +2171,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
@@ -2198,7 +2194,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" t="s">
@@ -2221,7 +2217,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
@@ -2244,7 +2240,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" t="s">
         <v>128</v>
       </c>
       <c r="B7" t="s">
@@ -2267,7 +2263,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" t="s">
         <v>129</v>
       </c>
       <c r="B8" t="s">
@@ -2290,7 +2286,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" t="s">
         <v>130</v>
       </c>
       <c r="B9" t="s">
@@ -2313,7 +2309,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" t="s">
         <v>131</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -2336,7 +2332,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" t="s">
         <v>132</v>
       </c>
       <c r="B11" t="s">
@@ -2359,7 +2355,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" t="s">
         <v>133</v>
       </c>
       <c r="B12" t="s">
@@ -2382,7 +2378,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" t="s">
         <v>134</v>
       </c>
       <c r="B13" t="s">
@@ -2405,7 +2401,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" t="s">
         <v>135</v>
       </c>
       <c r="B14" t="s">
@@ -2428,7 +2424,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" t="s">
         <v>136</v>
       </c>
       <c r="B15" t="s">
@@ -2451,7 +2447,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" t="s">
         <v>137</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2474,7 +2470,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" t="s">
         <v>138</v>
       </c>
       <c r="B17" t="s">
@@ -2497,7 +2493,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" t="s">
         <v>140</v>
       </c>
       <c r="B18" t="s">
@@ -2520,7 +2516,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" t="s">
         <v>141</v>
       </c>
       <c r="B19" t="s">
@@ -2543,7 +2539,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" t="s">
         <v>142</v>
       </c>
       <c r="B20" t="s">
@@ -2566,7 +2562,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" t="s">
         <v>143</v>
       </c>
       <c r="B21" t="s">
@@ -2589,7 +2585,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" t="s">
         <v>144</v>
       </c>
       <c r="B22" t="s">
@@ -2612,7 +2608,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" t="s">
         <v>145</v>
       </c>
       <c r="B23" t="s">
@@ -2635,7 +2631,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" t="s">
         <v>146</v>
       </c>
       <c r="B24" t="s">
@@ -2658,7 +2654,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" t="s">
         <v>147</v>
       </c>
       <c r="B25" t="s">
@@ -2682,7 +2678,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" t="s">
         <v>148</v>
       </c>
       <c r="B26" t="s">
@@ -2705,7 +2701,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" t="s">
         <v>149</v>
       </c>
       <c r="B27" t="s">
@@ -2728,7 +2724,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" t="s">
         <v>150</v>
       </c>
       <c r="B28" t="s">
@@ -2751,7 +2747,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" t="s">
         <v>151</v>
       </c>
       <c r="B29" t="s">
@@ -2774,7 +2770,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" t="s">
         <v>152</v>
       </c>
       <c r="B30" t="s">
@@ -2797,7 +2793,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
+      <c r="A31" t="s">
         <v>153</v>
       </c>
       <c r="B31" t="s">
@@ -2820,7 +2816,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" t="s">
         <v>154</v>
       </c>
       <c r="B32" t="s">
@@ -2843,7 +2839,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="A33" t="s">
         <v>155</v>
       </c>
       <c r="B33" t="s">
@@ -2866,7 +2862,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
+      <c r="A34" t="s">
         <v>156</v>
       </c>
       <c r="B34" t="s">
@@ -2889,7 +2885,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
+      <c r="A35" t="s">
         <v>157</v>
       </c>
       <c r="B35" t="s">
@@ -2912,7 +2908,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" t="s">
         <v>320</v>
       </c>
       <c r="B36" t="s">
